--- a/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
@@ -609,6 +609,9 @@
       <c r="C21" t="str">
         <v>674_大丽花圣诞老人_undefined_undefined_5stems</v>
       </c>
+      <c r="F21" t="str">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -670,7 +673,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015552030518020101010510306302215260</v>
+        <v>015552030518020101010510306302215265</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -613,9 +613,87 @@
         <v>5</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>5</v>
+      </c>
+      <c r="C22" t="str">
+        <v>317_尤加利叶细叶_Eucalyptus Parvifolia_undefined_1bunch</v>
+      </c>
+      <c r="F22" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" t="str">
+        <v>533_风车果_scabiosa pods_undefined_1bunch</v>
+      </c>
+      <c r="F23" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" t="str">
+        <v>504_大花葱_Allium _undefined_1bunch</v>
+      </c>
+      <c r="F24" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="C25" t="str">
+        <v>421_松虫草黑色_scabiosa black_undefined_1bunch</v>
+      </c>
+      <c r="F25" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="C26" t="str">
+        <v>419_松虫草红_scabiosa watermelon_undefined_1bunch</v>
+      </c>
+      <c r="F26" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="C27" t="str">
+        <v>426_金鱼草白色_snapdragon white_undefined_1bunch</v>
+      </c>
+      <c r="F27" t="str">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" t="str">
+        <v>643_巧克力秋英_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F28" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>6</v>
+      </c>
+      <c r="C29" t="str">
+        <v>401_大飞燕白色_delphinium white_undefined_1bunch</v>
+      </c>
+      <c r="F29" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" t="str">
+        <v>532_灯苔_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F30" t="str">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L30"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -673,7 +751,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015552030518020101010510306302215265</v>
+        <v>0155520305180201010105103063022152651515205535305</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-4.xlsx
@@ -753,6 +753,9 @@
       <c r="G2" t="str">
         <v>0155520305180201010105103063022152651515205535305</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
